--- a/biology/Médecine/Antonio_Bertoloni/Antonio_Bertoloni.xlsx
+++ b/biology/Médecine/Antonio_Bertoloni/Antonio_Bertoloni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Bertoloni (né le 8 février 1775 à Sarzana en Ligurie et mort le 17 avril 1869 (à 94 ans) à Bologne) est un médecin et un botaniste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Bertoloni étudie la médecine et la botanique à Pavie avant d’ouvrir un cabinet à Sarzana. En 1811, il obtient une chaire de professeur d’histoire naturelle au Lycée impérial de Gênes et en 1816 une chaire de botanique à l'université de Bologne. Sa principale œuvre est la Flora italica, une collection en 10 volumes écrite en une vingtaine d'années, dont le titre complet est : Flora italica sistens plantas in Italia et in insulis circumstantibus sponte nascentes.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Antonio Bertoloni est l’auteur de :
 Amoenitates italicae (1819)
